--- a/public/excelTemplates/attendance_template.xlsx
+++ b/public/excelTemplates/attendance_template.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$633</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -176,14 +179,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -213,16 +216,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1969785</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1979310</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>923734</xdr:rowOff>
+      <xdr:rowOff>895159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -245,8 +248,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4190999" y="142875"/>
-          <a:ext cx="3579511" cy="780859"/>
+          <a:off x="2171699" y="114300"/>
+          <a:ext cx="3585861" cy="780859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -523,45 +526,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -571,7 +574,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -581,7 +584,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4364,7 +4367,7 @@
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>